--- a/Cartouche/Cartouche - type.xlsx
+++ b/Cartouche/Cartouche - type.xlsx
@@ -394,7 +394,7 @@
     <t xml:space="preserve">EPURE</t>
   </si>
   <si>
-    <t xml:space="preserve">PLAN D’EPURE</t>
+    <t xml:space="preserve">EPURE D’IMPLANTATION</t>
   </si>
   <si>
     <t xml:space="preserve">EPU</t>
@@ -545,7 +545,7 @@
   <dimension ref="A1:AB40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E32" activeCellId="0" sqref="E32"/>
+      <selection pane="topLeft" activeCell="D32" activeCellId="0" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Cartouche/Cartouche - type.xlsx
+++ b/Cartouche/Cartouche - type.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="139">
   <si>
     <t>nom de la liste</t>
   </si>
@@ -394,13 +394,55 @@
   </si>
   <si>
     <t>EPU</t>
+  </si>
+  <si>
+    <t>ALIGNEMENT</t>
+  </si>
+  <si>
+    <t>PLAN D'ALIGNEMENT</t>
+  </si>
+  <si>
+    <t>ALI</t>
+  </si>
+  <si>
+    <t>TERIA Metropole</t>
+  </si>
+  <si>
+    <t>TERIA Corse</t>
+  </si>
+  <si>
+    <t>TRANSFORMEE</t>
+  </si>
+  <si>
+    <t>transfoList</t>
+  </si>
+  <si>
+    <t>lambert III</t>
+  </si>
+  <si>
+    <t>Coordonnées planimétriques transformées en Lambert III à la demande du client</t>
+  </si>
+  <si>
+    <t>Planimétrie</t>
+  </si>
+  <si>
+    <t>Altimétrie</t>
+  </si>
+  <si>
+    <t>AUSCULTATION</t>
+  </si>
+  <si>
+    <t>PLAN D'AUSCULTATION</t>
+  </si>
+  <si>
+    <t>AUS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -433,6 +475,12 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -454,7 +502,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -467,6 +515,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -770,10 +827,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB32"/>
+  <dimension ref="A1:AB34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -783,7 +840,8 @@
     <col min="3" max="3" width="32" customWidth="1"/>
     <col min="4" max="7" width="14.42578125" customWidth="1"/>
     <col min="8" max="9" width="26.7109375" customWidth="1"/>
-    <col min="10" max="14" width="14.42578125" customWidth="1"/>
+    <col min="10" max="13" width="14.42578125" customWidth="1"/>
+    <col min="14" max="14" width="16" customWidth="1"/>
     <col min="15" max="15" width="49.140625" customWidth="1"/>
     <col min="16" max="16" width="19" customWidth="1"/>
     <col min="17" max="1025" width="14.42578125" customWidth="1"/>
@@ -796,16 +854,20 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
+      <c r="G1" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
+      <c r="M1" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
@@ -823,13 +885,13 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="1"/>
@@ -1426,7 +1488,7 @@
       </c>
       <c r="L14" s="1"/>
       <c r="N14" s="1" t="s">
-        <v>67</v>
+        <v>128</v>
       </c>
       <c r="O14" s="1" t="s">
         <v>68</v>
@@ -1480,7 +1542,7 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1" t="s">
-        <v>67</v>
+        <v>129</v>
       </c>
       <c r="O15" s="1" t="s">
         <v>72</v>
@@ -1779,8 +1841,12 @@
         <v>18</v>
       </c>
       <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
+      <c r="G22" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -1817,9 +1883,15 @@
         <v>19</v>
       </c>
       <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
+      <c r="G23" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
@@ -2182,8 +2254,40 @@
       <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
     </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B33" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E33" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B34" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="E34" s="6">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="G1:J1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Cartouche/Cartouche - type.xlsx
+++ b/Cartouche/Cartouche - type.xlsx
@@ -102,12 +102,6 @@
     <t>rien</t>
   </si>
   <si>
-    <t>RECOLEMENT</t>
-  </si>
-  <si>
-    <t>PLAN DE RECOLEMENT</t>
-  </si>
-  <si>
     <t>REC</t>
   </si>
   <si>
@@ -138,12 +132,6 @@
     <t>Corse</t>
   </si>
   <si>
-    <t>REPERAGE</t>
-  </si>
-  <si>
-    <t>PLAN DE REPERAGE</t>
-  </si>
-  <si>
     <t>REP</t>
   </si>
   <si>
@@ -156,9 +144,6 @@
     <t>Local</t>
   </si>
   <si>
-    <t>ETAT DES LIEUX</t>
-  </si>
-  <si>
     <t>PLAN D'ÉTAT DES LIEUX</t>
   </si>
   <si>
@@ -240,12 +225,6 @@
     <t>par GNSS sur le réseau TERIA avec la grille RAC09</t>
   </si>
   <si>
-    <t>COPROPRIETE</t>
-  </si>
-  <si>
-    <t>PLAN DE COPROPRIETE</t>
-  </si>
-  <si>
     <t>COP</t>
   </si>
   <si>
@@ -258,9 +237,6 @@
     <t>sur RN n° .... (champs libre à compléter)</t>
   </si>
   <si>
-    <t>INTERIEUR</t>
-  </si>
-  <si>
     <t>PLAN D'INTÉRIEUR</t>
   </si>
   <si>
@@ -276,12 +252,6 @@
     <t>VOL</t>
   </si>
   <si>
-    <t>FACADE</t>
-  </si>
-  <si>
-    <t>PLAN DE FACADE</t>
-  </si>
-  <si>
     <t>FAC</t>
   </si>
   <si>
@@ -387,12 +357,6 @@
     <t>PIQ</t>
   </si>
   <si>
-    <t>EPURE</t>
-  </si>
-  <si>
-    <t>EPURE D’IMPLANTATION</t>
-  </si>
-  <si>
     <t>EPU</t>
   </si>
   <si>
@@ -436,6 +400,42 @@
   </si>
   <si>
     <t>AUS</t>
+  </si>
+  <si>
+    <t>RÉCOLEMENT</t>
+  </si>
+  <si>
+    <t>PLAN DE RÉCOLEMENT</t>
+  </si>
+  <si>
+    <t>REPÉRAGE</t>
+  </si>
+  <si>
+    <t>PLAN DE REPÉRAGE</t>
+  </si>
+  <si>
+    <t>ÉTAT DES LIEUX</t>
+  </si>
+  <si>
+    <t>COPROPRIÉTÉ</t>
+  </si>
+  <si>
+    <t>PLAN DE COPROPRIÉTÉ</t>
+  </si>
+  <si>
+    <t>INTÉRIEUR</t>
+  </si>
+  <si>
+    <t>ÉPURE</t>
+  </si>
+  <si>
+    <t>ÉPURE D’IMPLANTATION</t>
+  </si>
+  <si>
+    <t>FAÇADE</t>
+  </si>
+  <si>
+    <t>PLAN DE FAÇADE</t>
   </si>
 </sst>
 </file>
@@ -830,7 +830,7 @@
   <dimension ref="A1:AB34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -855,7 +855,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="8" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
@@ -863,7 +863,7 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="8" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="N1" s="8"/>
       <c r="O1" s="8"/>
@@ -983,13 +983,13 @@
         <v>12</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="K4" s="1">
         <v>0</v>
@@ -1113,13 +1113,13 @@
     <row r="7" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="E7" s="1">
         <v>3</v>
@@ -1141,13 +1141,13 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="Q7" s="1">
         <v>1</v>
@@ -1167,13 +1167,13 @@
     <row r="8" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E8" s="1">
         <v>4</v>
@@ -1181,13 +1181,13 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K8" s="1">
         <v>4</v>
@@ -1195,13 +1195,13 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q8" s="1">
         <v>2</v>
@@ -1221,13 +1221,13 @@
     <row r="9" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>39</v>
+        <v>129</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E9" s="1">
         <v>5</v>
@@ -1235,26 +1235,26 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K9" s="1">
         <v>5</v>
       </c>
       <c r="L9" s="1"/>
       <c r="N9" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q9" s="1">
         <v>3</v>
@@ -1274,13 +1274,13 @@
     <row r="10" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>45</v>
+        <v>131</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E10" s="1">
         <v>6</v>
@@ -1288,13 +1288,13 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K10" s="1">
         <v>6</v>
@@ -1315,13 +1315,13 @@
     <row r="11" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E11" s="1">
         <v>7</v>
@@ -1329,13 +1329,13 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K11" s="1">
         <v>7</v>
@@ -1361,13 +1361,13 @@
     <row r="12" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E12" s="1">
         <v>8</v>
@@ -1375,26 +1375,26 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K12" s="1">
         <v>8</v>
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
@@ -1411,13 +1411,13 @@
     <row r="13" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E13" s="1">
         <v>9</v>
@@ -1425,13 +1425,13 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K13" s="1">
         <v>9</v>
@@ -1461,13 +1461,13 @@
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E14" s="1">
         <v>10</v>
@@ -1475,26 +1475,26 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K14" s="1">
         <v>10</v>
       </c>
       <c r="L14" s="1"/>
       <c r="N14" s="1" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q14" s="1">
         <v>1</v>
@@ -1514,13 +1514,13 @@
     <row r="15" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E15" s="1">
         <v>11</v>
@@ -1528,13 +1528,13 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K15" s="1">
         <v>11</v>
@@ -1542,13 +1542,13 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q15" s="1">
         <v>2</v>
@@ -1568,13 +1568,13 @@
     <row r="16" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>73</v>
+        <v>132</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E16" s="1">
         <v>12</v>
@@ -1582,13 +1582,13 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K16" s="4">
         <v>12</v>
@@ -1596,10 +1596,10 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="P16" s="1"/>
       <c r="Q16" s="1">
@@ -1620,13 +1620,13 @@
     <row r="17" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="E17" s="1">
         <v>13</v>
@@ -1634,13 +1634,13 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="4" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K17" s="1">
         <v>13</v>
@@ -1666,13 +1666,13 @@
     <row r="18" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E18" s="1">
         <v>14</v>
@@ -1704,20 +1704,20 @@
     <row r="19" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>85</v>
+        <v>137</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="E19" s="1">
         <v>15</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>26</v>
@@ -1746,26 +1746,26 @@
     <row r="20" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="E20" s="1">
         <v>16</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1">
@@ -1791,13 +1791,13 @@
     <row r="21" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="E21" s="1">
         <v>17</v>
@@ -1829,20 +1829,20 @@
     <row r="22" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="E22" s="1">
         <v>18</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>26</v>
@@ -1871,26 +1871,26 @@
     <row r="23" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E23" s="1">
         <v>19</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="7" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
@@ -1915,13 +1915,13 @@
     <row r="24" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="E24" s="1">
         <v>20</v>
@@ -1953,13 +1953,13 @@
     <row r="25" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="E25" s="1">
         <v>21</v>
@@ -1991,13 +1991,13 @@
     <row r="26" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="E26" s="1">
         <v>22</v>
@@ -2029,13 +2029,13 @@
     <row r="27" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E27" s="1">
         <v>23</v>
@@ -2067,13 +2067,13 @@
     <row r="28" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="E28" s="1">
         <v>24</v>
@@ -2105,13 +2105,13 @@
     <row r="29" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E29" s="1">
         <v>25</v>
@@ -2143,13 +2143,13 @@
     <row r="30" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="4" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="E30" s="1">
         <v>26</v>
@@ -2181,13 +2181,13 @@
     <row r="31" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="E31" s="1">
         <v>27</v>
@@ -2219,13 +2219,13 @@
     <row r="32" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="E32" s="1">
         <v>28</v>
@@ -2256,13 +2256,13 @@
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="E33" s="1">
         <v>29</v>
@@ -2270,13 +2270,13 @@
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34" s="6" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="E34" s="6">
         <v>30</v>

--- a/Cartouche/Cartouche - type.xlsx
+++ b/Cartouche/Cartouche - type.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="144">
   <si>
     <t>nom de la liste</t>
   </si>
@@ -436,6 +436,21 @@
   </si>
   <si>
     <t>PLAN DE FAÇADE</t>
+  </si>
+  <si>
+    <t>AVANT PROJET</t>
+  </si>
+  <si>
+    <t>PROJET</t>
+  </si>
+  <si>
+    <t>AVP</t>
+  </si>
+  <si>
+    <t>PRJ</t>
+  </si>
+  <si>
+    <t>AVANT-PROJET</t>
   </si>
 </sst>
 </file>
@@ -502,7 +517,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -521,6 +536,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -827,10 +845,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB34"/>
+  <dimension ref="A1:AB36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -854,20 +872,20 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
@@ -2282,6 +2300,34 @@
         <v>30</v>
       </c>
     </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B35" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="E35" s="8">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B36" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="E36" s="8">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="M1:P1"/>
